--- a/apartmentManage/Data/resident.xlsx
+++ b/apartmentManage/Data/resident.xlsx
@@ -6,57 +6,48 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Residents" r:id="rId3" sheetId="1"/>
+    <sheet name="Bills" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
-    <t>Mã Cư Dân</t>
+    <t>Mã Hóa Đơn</t>
   </si>
   <si>
-    <t>Mã Căn Hộ</t>
+    <t>Ngày Tạo</t>
   </si>
   <si>
-    <t>Mã Tài Khoản</t>
+    <t>Hạn Thanh Toán</t>
   </si>
   <si>
-    <t>Họ Tên</t>
+    <t>Tổng Tiền</t>
   </si>
   <si>
-    <t>Giới Tính</t>
+    <t>Trạng Thái</t>
   </si>
   <si>
-    <t>Ngày Sinh</t>
+    <t>01/03/2025</t>
   </si>
   <si>
-    <t>Số Điện Thoại</t>
+    <t>10/03/2025</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>Đã thanh toán</t>
   </si>
   <si>
-    <t>CMND/CCCD</t>
+    <t>01/05/2025</t>
   </si>
   <si>
-    <t>Nguyen Van Hoang</t>
+    <t>10/05/2025</t>
   </si>
   <si>
-    <t>Nam</t>
+    <t>01/04/2025</t>
   </si>
   <si>
-    <t>1995-08-10</t>
-  </si>
-  <si>
-    <t>0901234597</t>
-  </si>
-  <si>
-    <t>hoang@gmail.com</t>
-  </si>
-  <si>
-    <t>123456749012</t>
+    <t>10/04/2025</t>
   </si>
 </sst>
 </file>
@@ -101,21 +92,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.09375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.3046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.28125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="17.82421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.41796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.3515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.6484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.78515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.82421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,46 +121,56 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="0">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>101.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>1015000.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="D3" t="n" s="0">
+        <v>780000.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>12</v>
+      <c r="D4" t="n" s="0">
+        <v>850000.0</v>
       </c>
-      <c r="H2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>14</v>
+      <c r="E4" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/resident.xlsx
+++ b/apartmentManage/Data/resident.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Mã Hóa Đơn</t>
   </si>
@@ -29,25 +29,31 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>01/02/2025</t>
+  </si>
+  <si>
+    <t>10/02/2025</t>
+  </si>
+  <si>
+    <t>Đã thanh toán</t>
+  </si>
+  <si>
     <t>01/03/2025</t>
   </si>
   <si>
     <t>10/03/2025</t>
   </si>
   <si>
-    <t>Đã thanh toán</t>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
   </si>
   <si>
     <t>01/05/2025</t>
   </si>
   <si>
     <t>10/05/2025</t>
-  </si>
-  <si>
-    <t>01/04/2025</t>
-  </si>
-  <si>
-    <t>10/04/2025</t>
   </si>
 </sst>
 </file>
@@ -92,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -124,7 +130,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>5</v>
@@ -133,7 +139,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1015000.0</v>
+        <v>1325000.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>7</v>
@@ -141,7 +147,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>8</v>
@@ -150,7 +156,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>780000.0</v>
+        <v>1227500.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>7</v>
@@ -158,7 +164,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>10</v>
@@ -167,9 +173,26 @@
         <v>11</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>850000.0</v>
+        <v>1210000.0</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1240000.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>7</v>
       </c>
     </row>
